--- a/book/horario/Horario.xlsx
+++ b/book/horario/Horario.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Documents\Book_organizer\book\horario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="B" sheetId="1" r:id="rId1"/>
-    <sheet name="A" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="B"/>
+    <sheet r:id="rId2" sheetId="2" name="A"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,68 +38,75 @@
     <t>SEX</t>
   </si>
   <si>
+    <t>MATEMATICA</t>
+  </si>
+  <si>
+    <t>ITINERARIO FORMATIVO</t>
+  </si>
+  <si>
+    <t>HISTORIA</t>
+  </si>
+  <si>
+    <t>ITINERARIO</t>
+  </si>
+  <si>
+    <t>QUIMICA</t>
+  </si>
+  <si>
+    <t>LINGUA PORTUGUESA</t>
+  </si>
+  <si>
     <t>LITERATURA</t>
   </si>
   <si>
-    <t>ITINERARIO FORMATIVO</t>
+    <t>GEOGRAFIA</t>
+  </si>
+  <si>
+    <t>FISICA</t>
+  </si>
+  <si>
+    <t>EDUCACAO FISICA</t>
   </si>
   <si>
     <t>PRODUCAO</t>
   </si>
   <si>
-    <t>ITINERARIO</t>
-  </si>
-  <si>
-    <t>MATEMATICA</t>
-  </si>
-  <si>
-    <t>HISTORIA</t>
-  </si>
-  <si>
-    <t>QUIMICA</t>
-  </si>
-  <si>
-    <t>LINGUA PORTUGUESA</t>
+    <t>INTERIORIDADE</t>
+  </si>
+  <si>
+    <t>BIOLOGIA</t>
   </si>
   <si>
     <t>ARTE</t>
   </si>
   <si>
-    <t>EDUCACAO FISICA</t>
-  </si>
-  <si>
-    <t>FISICA</t>
-  </si>
-  <si>
-    <t>INTERIORIDADE</t>
-  </si>
-  <si>
-    <t>GEOGRAFIA</t>
+    <t>SOCIOLOGIA</t>
+  </si>
+  <si>
+    <t>INGLES</t>
   </si>
   <si>
     <t>FILOSOFIA</t>
-  </si>
-  <si>
-    <t>BIOLOGIA</t>
-  </si>
-  <si>
-    <t>SOCIOLOGIA</t>
-  </si>
-  <si>
-    <t>INGLES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -114,13 +116,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,44 +162,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,10 +210,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -249,71 +251,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,7 +343,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -364,11 +366,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -377,13 +379,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -393,7 +395,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -402,7 +404,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -411,7 +413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -419,10 +421,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -493,21 +495,22 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +525,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -539,185 +542,185 @@
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -730,32 +733,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -771,150 +780,170 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/book/horario/Horario.xlsx
+++ b/book/horario/Horario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="B"/>
@@ -53,7 +53,7 @@
     <t>QUIMICA</t>
   </si>
   <si>
-    <t>LINGUA PORTUGUESA</t>
+    <t>PORTUGUES</t>
   </si>
   <si>
     <t>LITERATURA</t>
@@ -65,7 +65,7 @@
     <t>FISICA</t>
   </si>
   <si>
-    <t>EDUCACAO FISICA</t>
+    <t>ED</t>
   </si>
   <si>
     <t>PRODUCAO</t>
@@ -77,7 +77,7 @@
     <t>BIOLOGIA</t>
   </si>
   <si>
-    <t>ARTE</t>
+    <t>ARTES</t>
   </si>
   <si>
     <t>SOCIOLOGIA</t>
@@ -94,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -117,12 +117,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -162,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,9 +180,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -495,7 +486,7 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -510,7 +501,7 @@
     <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,9 +533,9 @@
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
@@ -707,7 +698,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
@@ -738,7 +729,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
